--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1734355.3509952</v>
+        <v>1841584.792393287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10167995.58834172</v>
+        <v>10181444.03372136</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>227.7569603098104</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>249.604952815021</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.7245206483192</v>
       </c>
       <c r="V4" t="n">
-        <v>130.0282172674233</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>238.9031699608872</v>
       </c>
       <c r="E5" t="n">
-        <v>79.91534106849805</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>126.8720354886224</v>
       </c>
       <c r="U7" t="n">
-        <v>92.50360866660985</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.0819151349771</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.25108662428314</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.945202867367002</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212369</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.08134457786378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>53.30076123484789</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9125838784778</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>2.268486125805158</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.7478529248628</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>83.44729448253339</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725659</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>61.66004604094911</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.96996784159862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936.747355174407</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C2" t="n">
-        <v>1567.784838233996</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4367,13 +4369,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2310.213113435487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.747355174407</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.747355174407</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813028</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885121</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472786</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890393</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392482</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700761</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.710580560016</v>
+        <v>1359.956705278215</v>
       </c>
       <c r="V4" t="n">
-        <v>2234.368946956558</v>
+        <v>1105.272217072328</v>
       </c>
       <c r="W4" t="n">
-        <v>2234.368946956558</v>
+        <v>815.8550470353679</v>
       </c>
       <c r="X4" t="n">
-        <v>2234.368946956558</v>
+        <v>587.8654961373505</v>
       </c>
       <c r="Y4" t="n">
-        <v>2013.576367813028</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264415</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.873537264415</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1505.042027525392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1209.080394549312</v>
       </c>
       <c r="U7" t="n">
-        <v>1744.02610229389</v>
+        <v>1209.080394549312</v>
       </c>
       <c r="V7" t="n">
-        <v>1489.341614088003</v>
+        <v>954.3959063434252</v>
       </c>
       <c r="W7" t="n">
-        <v>1199.924444051042</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="X7" t="n">
-        <v>1199.924444051042</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>664.9787363064645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>934.6665353554997</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>565.7040184150881</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>207.4383198083376</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>207.4383198083376</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993392</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732312</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1321.266375419621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>789.4460866465113</v>
       </c>
       <c r="W10" t="n">
-        <v>1645.778206672847</v>
+        <v>500.0289166095506</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>272.0393657115333</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>51.24678656800314</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,19 +5056,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,70 +5175,70 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
         <v>1501.108204237296</v>
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>3445.398957336244</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>3445.398957336244</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
         <v>317.6151975578602</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.8461362382112</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C31" t="n">
-        <v>472.9099533103043</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.45917461044</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1801.383947954638</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>633.9926444679666</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001555</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.294667918811</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4329.693202941752</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>4040.61797628595</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3785.933488080063</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3496.516318043103</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3268.526767145085</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>3047.734188001555</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>2965.647484649469</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>2796.711301721562</v>
       </c>
       <c r="D40" t="n">
-        <v>696.7084350851671</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E40" t="n">
-        <v>548.795341502774</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F40" t="n">
-        <v>401.9053940048636</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>4429.254964419905</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>4140.179737764103</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>3885.495249558217</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>3596.078079521256</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>3368.088528623239</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>3147.295949479709</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7425191625314</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>229.7425191625314</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2384.680208791423</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780022</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>127.7255247667967</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>121.5862749664509</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.4928664488105</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.2784330767818</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>82.07684380973545</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>30.95754073885493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>119.3662399606955</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.6146855104962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>897069.5431855376</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>889939.2301842526</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>889939.2301842526</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="14">
@@ -26314,43 +26316,43 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907546</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.3471980833</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.3471980833</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26448,7 +26450,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26457,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192368</v>
+        <v>-787804.3616192369</v>
       </c>
       <c r="C6" t="n">
-        <v>155526.1652868089</v>
+        <v>326947.421956683</v>
       </c>
       <c r="D6" t="n">
-        <v>358964.9068989151</v>
+        <v>326947.4219566823</v>
       </c>
       <c r="E6" t="n">
-        <v>110171.6507327597</v>
+        <v>-71901.32908443024</v>
       </c>
       <c r="F6" t="n">
-        <v>435584.1125401148</v>
+        <v>435584.1125401151</v>
       </c>
       <c r="G6" t="n">
         <v>435584.112540115</v>
@@ -26540,28 +26542,28 @@
         <v>435584.1125401148</v>
       </c>
       <c r="I6" t="n">
+        <v>435584.1125401151</v>
+      </c>
+      <c r="J6" t="n">
+        <v>267978.9347301321</v>
+      </c>
+      <c r="K6" t="n">
         <v>435584.1125401148</v>
-      </c>
-      <c r="J6" t="n">
-        <v>267978.9347301322</v>
-      </c>
-      <c r="K6" t="n">
-        <v>386474.0198340601</v>
       </c>
       <c r="L6" t="n">
         <v>435584.1125401148</v>
       </c>
       <c r="M6" t="n">
-        <v>350529.0846046029</v>
+        <v>302976.8188111881</v>
       </c>
       <c r="N6" t="n">
         <v>435584.1125401147</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401147</v>
+        <v>435584.1125401152</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.112540115</v>
+        <v>435584.1125401148</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.7907424631436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>99.63601590239199</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>12.50263347288137</v>
       </c>
       <c r="V4" t="n">
-        <v>122.1094260564047</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>115.7798716597958</v>
       </c>
       <c r="E5" t="n">
-        <v>302.0150290037637</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>93.87666050858955</v>
       </c>
       <c r="U7" t="n">
-        <v>193.708229539003</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.7941306067344</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.9868520317705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>216.8034931298449</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,19 +32788,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753702</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.8517673857162</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533519</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.510055302383</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>556.4534171013642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841584.792393287</v>
+        <v>1837447.635143135</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>227.7569603098104</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>156.6864193108313</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>273.7245206483192</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>238.9031699608872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>196.6997841156784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8720354886224</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.0819151349771</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>181.651725057892</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.945202867367002</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>171.9125838784778</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>77.93612009725659</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>1488.368453810659</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395622</v>
+        <v>1488.368453810659</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>1488.368453810659</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.723020190627</v>
+        <v>1102.580201212415</v>
       </c>
       <c r="F2" t="n">
-        <v>651.7371154010195</v>
+        <v>691.594296422807</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>275.8895461470959</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1359.956705278215</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1105.272217072328</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>815.8550470353679</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>587.8654961373505</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.0729169938204</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525392</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C5" t="n">
-        <v>1505.042027525392</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>249.9334371899005</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525392</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525392</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.9787363064645</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>664.9787363064645</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1209.080394549312</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1209.080394549312</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>954.3959063434252</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>664.9787363064645</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>664.9787363064645</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.9787363064645</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554997</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>565.7040184150881</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>207.4383198083376</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>207.4383198083376</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926627</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656513</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395433</v>
+        <v>2005.386979171507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.266375419621</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380217</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800314</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800314</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800314</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800314</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465113</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095506</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115333</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800314</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,13 +5135,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2090.45917461044</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1546.699459748751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.28228971179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2965.647484649469</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>2796.711301721562</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>2646.594662309226</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4429.254964419905</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4140.179737764103</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>3885.495249558217</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>3596.078079521256</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>3368.088528623239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>3147.295949479709</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2384.680208791423</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.078743814364</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.003517158562</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.319028952675</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.901858915714</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.912308017697</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.1197288741665</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908938</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878337</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780022</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.4928664488105</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>147.3599015160452</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.4693302300317</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>119.3662399606955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>897069.5431855376</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469046</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907546</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26444,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192369</v>
+        <v>-787804.3616192364</v>
       </c>
       <c r="C6" t="n">
-        <v>326947.421956683</v>
+        <v>326947.4219566828</v>
       </c>
       <c r="D6" t="n">
-        <v>326947.4219566823</v>
+        <v>326947.4219566828</v>
       </c>
       <c r="E6" t="n">
-        <v>-71901.32908443024</v>
+        <v>-72248.7083387883</v>
       </c>
       <c r="F6" t="n">
-        <v>435584.1125401151</v>
+        <v>435236.7332857578</v>
       </c>
       <c r="G6" t="n">
-        <v>435584.112540115</v>
+        <v>435236.7332857578</v>
       </c>
       <c r="H6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857584</v>
       </c>
       <c r="I6" t="n">
-        <v>435584.1125401151</v>
+        <v>435236.733285758</v>
       </c>
       <c r="J6" t="n">
-        <v>267978.9347301321</v>
+        <v>267631.5554757752</v>
       </c>
       <c r="K6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857578</v>
       </c>
       <c r="L6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857575</v>
       </c>
       <c r="M6" t="n">
-        <v>302976.8188111881</v>
+        <v>302629.4395568309</v>
       </c>
       <c r="N6" t="n">
-        <v>435584.1125401147</v>
+        <v>435236.7332857581</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401152</v>
+        <v>435236.7332857579</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.1125401148</v>
+        <v>435236.7332857581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>183.7907424631436</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>144.332133251574</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,10 +27593,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>12.50263347288137</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>115.7798716597958</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>104.318768446727</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>93.87666050858955</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7941306067344</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247041</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>69.39352507056998</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>216.8034931298449</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>509.0826837242976</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313186</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>377.7409716409642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1837447.635143135</v>
+        <v>1839208.165445921</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>397.0474806964859</v>
       </c>
       <c r="H2" t="n">
-        <v>156.6864193108313</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.9807481254279</v>
+        <v>38.04469089638157</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>196.6997841156784</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>45.20357473338089</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.24898250621892</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>220.8789552701366</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.651725057892</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>7.820262673773914</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53917159609115</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>36.22494343870298</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>87.27508091633791</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520991</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.97427419833815</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>19.88691958258267</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788176329</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1488.368453810659</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.368453810659</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="D2" t="n">
-        <v>1488.368453810659</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="E2" t="n">
-        <v>1102.580201212415</v>
+        <v>863.2907526671925</v>
       </c>
       <c r="F2" t="n">
-        <v>691.594296422807</v>
+        <v>452.3048478775849</v>
       </c>
       <c r="G2" t="n">
-        <v>275.8895461470959</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>1249.079005265437</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744477</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
@@ -4427,13 +4427,13 @@
         <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>809.3867773625716</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>640.4505944346647</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>490.333955022329</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>342.4208614399358</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>195.5309139420255</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>991.0352421928113</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.63763941981</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813059</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148151</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252075</v>
+        <v>108.5713093016747</v>
       </c>
       <c r="G5" t="n">
-        <v>249.9334371899005</v>
+        <v>96.90696306636765</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>96.90696306636765</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424343</v>
+        <v>906.157054155404</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>864.6537434744312</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>695.7175605465243</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>545.6009211341885</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>397.6878275517954</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>250.7978800538851</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>82.81141536216364</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>82.81141536216364</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>864.6537434744312</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>864.6537434744312</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>359.340338545046</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>359.340338545046</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2378.852737432587</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2378.852737432587</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.852737432587</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.386979171507</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1329.334710523907</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1329.334710523907</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1329.334710523907</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1087555692761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,22 +5530,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5609,10 +5609,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1956.350136867866</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1701.665648661979</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1412.248478625018</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1184.258927727001</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7074,73 +7074,73 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038312</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.032901224156</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>86.11098998263061</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.75554125013274</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.8013425629416</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.9093934729062</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.63391537253403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788574</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>147.3599015160452</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194536</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="4">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907542</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26432,7 +26432,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26444,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26456,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731925</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192364</v>
+        <v>-787804.3616192369</v>
       </c>
       <c r="C6" t="n">
-        <v>326947.4219566828</v>
+        <v>326947.4219566829</v>
       </c>
       <c r="D6" t="n">
         <v>326947.4219566828</v>
       </c>
       <c r="E6" t="n">
-        <v>-72248.7083387883</v>
+        <v>-71936.06700986637</v>
       </c>
       <c r="F6" t="n">
-        <v>435236.7332857578</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="G6" t="n">
-        <v>435236.7332857578</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="H6" t="n">
-        <v>435236.7332857584</v>
+        <v>435549.3746146794</v>
       </c>
       <c r="I6" t="n">
-        <v>435236.733285758</v>
+        <v>435549.374614679</v>
       </c>
       <c r="J6" t="n">
-        <v>267631.5554757752</v>
+        <v>267944.1968046965</v>
       </c>
       <c r="K6" t="n">
-        <v>435236.7332857578</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="L6" t="n">
-        <v>435236.7332857575</v>
+        <v>435549.374614679</v>
       </c>
       <c r="M6" t="n">
-        <v>302629.4395568309</v>
+        <v>302942.0808857526</v>
       </c>
       <c r="N6" t="n">
-        <v>435236.7332857581</v>
+        <v>435549.374614679</v>
       </c>
       <c r="O6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="P6" t="n">
-        <v>435236.7332857581</v>
+        <v>435549.3746146795</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.50022207646805</v>
       </c>
       <c r="H2" t="n">
-        <v>144.332133251574</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193763</v>
+        <v>128.2619091484226</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>104.318768446727</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>20.50633793908955</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>73.54761269768163</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>161.0514148021252</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>69.39352507056998</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>278.4068914474267</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29027,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.590892722503113e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.501964040707998e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676409</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065826</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37466,7 +37466,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096319</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
